--- a/biology/Zoologie/Formation_d'Antlers/Formation_d'Antlers.xlsx
+++ b/biology/Zoologie/Formation_d'Antlers/Formation_d'Antlers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Formation_d%27Antlers</t>
+          <t>Formation_d'Antlers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La formation d'Antlers est une formation géologique datant de la fin du Crétacé inférieur située dans le sud de l'Oklahoma, le nord-est du Texas et l'Arkansas aux États-Unis.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Formation_d%27Antlers</t>
+          <t>Formation_d'Antlers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Lithologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La formation d'Antlers est constituée de 150 m calcaires fins (mudstones) silteux ou sableux et de grès à grains fins à grossiers, peu à modérément triés, et cimentés par de l'argile ou du calcaire. Par endroits les grès deviennent conglomératiques ou ferrugineux.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Formation_d%27Antlers</t>
+          <t>Formation_d'Antlers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Âge</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Par correlation avec la formation géologique « Trinity Group » du Texas, la Formation d'Antlers est attribuée à l'Aptien supérieur - Albien inférieur. Cette datation est renforcée par la présence de deux dinosaures également découverts dans la Formation de Cloverly : Deinonychus et Tenontosaurus.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Formation_d%27Antlers</t>
+          <t>Formation_d'Antlers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -581,7 +599,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Formation_d%27Antlers</t>
+          <t>Formation_d'Antlers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -599,11 +617,12 @@
           <t>Poissons vertébrés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Références : Cifelli et al. 1999 ; Wedel et al. 2000, Kielan-Jarorowska and Cifelli 2001 ; Nydam and Cifelli 2002.
-Poissons cartilagineux
-Poissons à nageoires rayonnées</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Références : Cifelli et al. 1999 ; Wedel et al. 2000, Kielan-Jarorowska and Cifelli 2001 ; Nydam and Cifelli 2002.
+</t>
         </is>
       </c>
     </row>
@@ -613,7 +632,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Formation_d%27Antlers</t>
+          <t>Formation_d'Antlers</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -632,40 +651,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Formation_d%27Antlers</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Formation_d%27Antlers</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Reptiles</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Crurotarsans
-Lépidosauriens
-Ornithischiens
-Saurischiens
-Tortues</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
